--- a/natmiOut/OldD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.735145635172</v>
+        <v>32.270062</v>
       </c>
       <c r="H2">
-        <v>31.735145635172</v>
+        <v>96.810186</v>
       </c>
       <c r="I2">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J2">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.972107786669922</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N2">
-        <v>0.972107786669922</v>
+        <v>2.992857</v>
       </c>
       <c r="O2">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632875</v>
       </c>
       <c r="P2">
-        <v>0.07292766890090346</v>
+        <v>0.06139866523632876</v>
       </c>
       <c r="Q2">
-        <v>30.84998218305469</v>
+        <v>32.193226982378</v>
       </c>
       <c r="R2">
-        <v>30.84998218305469</v>
+        <v>289.739042841402</v>
       </c>
       <c r="S2">
-        <v>0.06871481786230327</v>
+        <v>0.05514296913781225</v>
       </c>
       <c r="T2">
-        <v>0.06871481786230327</v>
+        <v>0.05514296913781225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.735145635172</v>
+        <v>32.270062</v>
       </c>
       <c r="H3">
-        <v>31.735145635172</v>
+        <v>96.810186</v>
       </c>
       <c r="I3">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J3">
-        <v>0.9422324735989469</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3576448479694</v>
+        <v>14.969586</v>
       </c>
       <c r="N3">
-        <v>12.3576448479694</v>
+        <v>44.908758</v>
       </c>
       <c r="O3">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732858</v>
       </c>
       <c r="P3">
-        <v>0.9270723310990966</v>
+        <v>0.9213062296732859</v>
       </c>
       <c r="Q3">
-        <v>392.1716589580419</v>
+        <v>483.069468334332</v>
       </c>
       <c r="R3">
-        <v>392.1716589580419</v>
+        <v>4347.625215008988</v>
       </c>
       <c r="S3">
-        <v>0.8735176557366437</v>
+        <v>0.8274375476046731</v>
       </c>
       <c r="T3">
-        <v>0.8735176557366437</v>
+        <v>0.8274375476046731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.16297146158781</v>
+        <v>32.270062</v>
       </c>
       <c r="H4">
-        <v>1.16297146158781</v>
+        <v>96.810186</v>
       </c>
       <c r="I4">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283896</v>
       </c>
       <c r="J4">
-        <v>0.03452920902188655</v>
+        <v>0.8981134838283895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.972107786669922</v>
+        <v>0.2810146666666667</v>
       </c>
       <c r="N4">
-        <v>0.972107786669922</v>
+        <v>0.843044</v>
       </c>
       <c r="O4">
-        <v>0.07292766890090346</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="P4">
-        <v>0.07292766890090346</v>
+        <v>0.01729510509038539</v>
       </c>
       <c r="Q4">
-        <v>1.13053361348441</v>
+        <v>9.068360716242669</v>
       </c>
       <c r="R4">
-        <v>1.13053361348441</v>
+        <v>81.615246446184</v>
       </c>
       <c r="S4">
-        <v>0.002518134722958231</v>
+        <v>0.01553296708590414</v>
       </c>
       <c r="T4">
-        <v>0.002518134722958231</v>
+        <v>0.01553296708590414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.16297146158781</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H5">
-        <v>1.16297146158781</v>
+        <v>4.589234</v>
       </c>
       <c r="I5">
-        <v>0.03452920902188655</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="J5">
-        <v>0.03452920902188655</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.3576448479694</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N5">
-        <v>12.3576448479694</v>
+        <v>2.992857</v>
       </c>
       <c r="O5">
-        <v>0.9270723310990966</v>
+        <v>0.06139866523632875</v>
       </c>
       <c r="P5">
-        <v>0.9270723310990966</v>
+        <v>0.06139866523632876</v>
       </c>
       <c r="Q5">
-        <v>14.37158829062604</v>
+        <v>1.526102344615333</v>
       </c>
       <c r="R5">
-        <v>14.37158829062604</v>
+        <v>13.734921101538</v>
       </c>
       <c r="S5">
-        <v>0.03201107429892833</v>
+        <v>0.002614022338808425</v>
       </c>
       <c r="T5">
-        <v>0.03201107429892833</v>
+        <v>0.002614022338808425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.782685172723201</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H6">
-        <v>0.782685172723201</v>
+        <v>4.589234</v>
       </c>
       <c r="I6">
-        <v>0.02323831737916661</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="J6">
-        <v>0.02323831737916661</v>
+        <v>0.04257457924772188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.972107786669922</v>
+        <v>14.969586</v>
       </c>
       <c r="N6">
-        <v>0.972107786669922</v>
+        <v>44.908758</v>
       </c>
       <c r="O6">
-        <v>0.07292766890090346</v>
+        <v>0.9213062296732858</v>
       </c>
       <c r="P6">
-        <v>0.07292766890090346</v>
+        <v>0.9213062296732859</v>
       </c>
       <c r="Q6">
-        <v>0.7608543509153166</v>
+        <v>22.899644345708</v>
       </c>
       <c r="R6">
-        <v>0.7608543509153166</v>
+        <v>206.096799111372</v>
       </c>
       <c r="S6">
-        <v>0.001694716315641973</v>
+        <v>0.03922422508664516</v>
       </c>
       <c r="T6">
-        <v>0.001694716315641973</v>
+        <v>0.03922422508664516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.529744666666667</v>
+      </c>
+      <c r="H7">
+        <v>4.589234</v>
+      </c>
+      <c r="I7">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="J7">
+        <v>0.04257457924772188</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2810146666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.843044</v>
+      </c>
+      <c r="O7">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="P7">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="Q7">
+        <v>0.4298806875884445</v>
+      </c>
+      <c r="R7">
+        <v>3.868926188296</v>
+      </c>
+      <c r="S7">
+        <v>0.0007363318222682909</v>
+      </c>
+      <c r="T7">
+        <v>0.0007363318222682909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.467217</v>
+      </c>
+      <c r="I8">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J8">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N8">
+        <v>2.992857</v>
+      </c>
+      <c r="O8">
+        <v>0.06139866523632875</v>
+      </c>
+      <c r="P8">
+        <v>0.06139866523632876</v>
+      </c>
+      <c r="Q8">
+        <v>1.818066518774333</v>
+      </c>
+      <c r="R8">
+        <v>16.362598668969</v>
+      </c>
+      <c r="S8">
+        <v>0.003114120432541287</v>
+      </c>
+      <c r="T8">
+        <v>0.003114120432541287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.467217</v>
+      </c>
+      <c r="I9">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J9">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>14.969586</v>
+      </c>
+      <c r="N9">
+        <v>44.908758</v>
+      </c>
+      <c r="O9">
+        <v>0.9213062296732858</v>
+      </c>
+      <c r="P9">
+        <v>0.9213062296732859</v>
+      </c>
+      <c r="Q9">
+        <v>27.280658354054</v>
+      </c>
+      <c r="R9">
+        <v>245.525925186486</v>
+      </c>
+      <c r="S9">
+        <v>0.04672835383977651</v>
+      </c>
+      <c r="T9">
+        <v>0.04672835383977651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.822405666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.467217</v>
+      </c>
+      <c r="I10">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="J10">
+        <v>0.05071967640590832</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2810146666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.843044</v>
+      </c>
+      <c r="O10">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="P10">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="Q10">
+        <v>0.5121227209497778</v>
+      </c>
+      <c r="R10">
+        <v>4.609104488548</v>
+      </c>
+      <c r="S10">
+        <v>0.0008772021335905248</v>
+      </c>
+      <c r="T10">
+        <v>0.0008772021335905248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.308728</v>
+      </c>
+      <c r="H11">
+        <v>0.926184</v>
+      </c>
+      <c r="I11">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J11">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N11">
+        <v>2.992857</v>
+      </c>
+      <c r="O11">
+        <v>0.06139866523632875</v>
+      </c>
+      <c r="P11">
+        <v>0.06139866523632876</v>
+      </c>
+      <c r="Q11">
+        <v>0.307992918632</v>
+      </c>
+      <c r="R11">
+        <v>2.771936267688</v>
+      </c>
+      <c r="S11">
+        <v>0.0005275533271667869</v>
+      </c>
+      <c r="T11">
+        <v>0.000527553327166787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.782685172723201</v>
-      </c>
-      <c r="H7">
-        <v>0.782685172723201</v>
-      </c>
-      <c r="I7">
-        <v>0.02323831737916661</v>
-      </c>
-      <c r="J7">
-        <v>0.02323831737916661</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.3576448479694</v>
-      </c>
-      <c r="N7">
-        <v>12.3576448479694</v>
-      </c>
-      <c r="O7">
-        <v>0.9270723310990966</v>
-      </c>
-      <c r="P7">
-        <v>0.9270723310990966</v>
-      </c>
-      <c r="Q7">
-        <v>9.672145392284905</v>
-      </c>
-      <c r="R7">
-        <v>9.672145392284905</v>
-      </c>
-      <c r="S7">
-        <v>0.02154360106352463</v>
-      </c>
-      <c r="T7">
-        <v>0.02154360106352463</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.308728</v>
+      </c>
+      <c r="H12">
+        <v>0.926184</v>
+      </c>
+      <c r="I12">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J12">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.969586</v>
+      </c>
+      <c r="N12">
+        <v>44.908758</v>
+      </c>
+      <c r="O12">
+        <v>0.9213062296732858</v>
+      </c>
+      <c r="P12">
+        <v>0.9213062296732859</v>
+      </c>
+      <c r="Q12">
+        <v>4.621530346608</v>
+      </c>
+      <c r="R12">
+        <v>41.593773119472</v>
+      </c>
+      <c r="S12">
+        <v>0.007916103142190911</v>
+      </c>
+      <c r="T12">
+        <v>0.007916103142190911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.308728</v>
+      </c>
+      <c r="H13">
+        <v>0.926184</v>
+      </c>
+      <c r="I13">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="J13">
+        <v>0.008592260517980134</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2810146666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.843044</v>
+      </c>
+      <c r="O13">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="P13">
+        <v>0.01729510509038539</v>
+      </c>
+      <c r="Q13">
+        <v>0.08675709601066667</v>
+      </c>
+      <c r="R13">
+        <v>0.7808138640960001</v>
+      </c>
+      <c r="S13">
+        <v>0.0001486040486224356</v>
+      </c>
+      <c r="T13">
+        <v>0.0001486040486224356</v>
       </c>
     </row>
   </sheetData>
